--- a/Project Outputs for Free Documents/BOM/Bill of Materials-minesweeper-mainboard.xlsx
+++ b/Project Outputs for Free Documents/BOM/Bill of Materials-minesweeper-mainboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/649dfdc13902ec6b/Desktop/IGEN-430-Minesweeper/Project Outputs for Free Documents/BOM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenny\Desktop\IGEN-430-Minesweeper\Project Outputs for Free Documents\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3192B11A-956B-4834-B2E5-C7F557046108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D1B0BE6-D1EA-4A8F-B4EE-C42D1174EB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{4C0E4DB1-62AE-4E27-A69A-A6492A60AD09}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{D0D1CC74-5380-4BDB-BB32-D1B58A750468}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-minesweeper-m" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="165">
   <si>
     <t>Comment</t>
   </si>
@@ -92,7 +92,7 @@
     <t>Default Symbol for Capacitors</t>
   </si>
   <si>
-    <t>C1, C4, C9</t>
+    <t>C1, C4, C8, C9</t>
   </si>
   <si>
     <t>0805</t>
@@ -104,7 +104,19 @@
     <t>10uF 50V</t>
   </si>
   <si>
-    <t>C2, C3, C5, C6, C7, C8</t>
+    <t>C2, C3</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>CAP CER 22UF 16V X5R 0805</t>
+  </si>
+  <si>
+    <t>C5, C6, C7, C26</t>
+  </si>
+  <si>
+    <t>CAP 22uF 16V</t>
   </si>
   <si>
     <t>33nF 50V</t>
@@ -278,18 +290,21 @@
     <t>WURTH_61300411121</t>
   </si>
   <si>
+    <t>PA4342.682NLT</t>
+  </si>
+  <si>
+    <t>FIXED IND 6.8UH 8.5A 23.3MOHM SM</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>IND_PA4342.332NLT</t>
+  </si>
+  <si>
     <t>PA4342.332NLT</t>
   </si>
   <si>
-    <t>Inductor Power Shielded/Molded Wirewound 3.3uH 20% 100KHz 11A 11.8mOhm DCR 4040 T/R</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>IND_PA4342.332NLT</t>
-  </si>
-  <si>
     <t>XT60</t>
   </si>
   <si>
@@ -476,15 +491,6 @@
     <t>SOP65P640X120-24N</t>
   </si>
   <si>
-    <t>TPS62933ODRLR</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SOT5X3-8_DRL_TEX</t>
-  </si>
-  <si>
     <t>NE555DR</t>
   </si>
   <si>
@@ -519,6 +525,15 @@
   </si>
   <si>
     <t>PQFN50P700X700X104-49N - BigPads</t>
+  </si>
+  <si>
+    <t>XTPS62933DRLR</t>
+  </si>
+  <si>
+    <t>U?</t>
+  </si>
+  <si>
+    <t>SOT_33DRLR_TEX</t>
   </si>
 </sst>
 </file>
@@ -577,16 +592,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,11 +929,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E090E51A-FD2E-4A35-8197-AC56BBF7201F}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E80D7B-48DD-4873-A0EC-860B33C07E24}">
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -933,829 +939,848 @@
     <col min="1" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="E26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="3" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="E36" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F33" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F34" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="3" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F35" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F37" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F40" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F41" s="4">
+      <c r="C42" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup scale="35" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>